--- a/Mail/ChinaUnion_Agent/Template/ImportWechat_Template.xlsx
+++ b/Mail/ChinaUnion_Agent/Template/ImportWechat_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_SourceCode\Mail\ChinaUnion_Agent\bin\Debug\Sample Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_SourceCode\Mail\ChinaUnion_Agent\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>帐号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>邮箱</t>
   </si>
@@ -40,9 +34,6 @@
   </si>
   <si>
     <t>李四</t>
-  </si>
-  <si>
-    <t>lisi</t>
   </si>
   <si>
     <t>lisi14</t>
@@ -56,6 +47,30 @@
   </si>
   <si>
     <t>手机号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道名称</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店联系人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号禁用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -974,68 +989,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
       <c r="D2">
         <v>15913112120</v>
       </c>
       <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
       <c r="D3">
         <v>18913112121</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
